--- a/data/trans_orig/P16A05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Provincia-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2751,7 +2751,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4948,7 +4948,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7145,7 +7145,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (tasa de respuesta: 99,91%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2023 (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6128</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2586</v>
+        <v>2555</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11459</v>
+        <v>12179</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02244547085953326</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009472149321983273</v>
+        <v>0.009359733641491912</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04197157980123353</v>
+        <v>0.0446082793062015</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -765,19 +765,19 @@
         <v>17853</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10467</v>
+        <v>10292</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26851</v>
+        <v>28947</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06844668636432877</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04012993334855749</v>
+        <v>0.03945596628731812</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1029423317464541</v>
+        <v>0.1109778429162135</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -786,19 +786,19 @@
         <v>23981</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16005</v>
+        <v>16255</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36994</v>
+        <v>35050</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04492165985608054</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02998000531338344</v>
+        <v>0.03044927819766299</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06929742184028558</v>
+        <v>0.06565472403380468</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>266882</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>261551</v>
+        <v>260831</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>270424</v>
+        <v>270455</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9775545291404667</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9580284201987666</v>
+        <v>0.9553917206937984</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9905278506780167</v>
+        <v>0.9906402663585081</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>228</v>
@@ -836,19 +836,19 @@
         <v>242985</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>233987</v>
+        <v>231891</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>250371</v>
+        <v>250546</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9315533136356712</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8970576682535456</v>
+        <v>0.8890221570837858</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9598700666514424</v>
+        <v>0.9605440337126818</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>492</v>
@@ -857,19 +857,19 @@
         <v>509867</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>496854</v>
+        <v>498798</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>517843</v>
+        <v>517593</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9550783401439195</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9307025781597144</v>
+        <v>0.9343452759661953</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9700199946866165</v>
+        <v>0.9695507218023369</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>11911</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6138</v>
+        <v>6649</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19918</v>
+        <v>20762</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02415604862142358</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01244847544765607</v>
+        <v>0.0134846823558731</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04039547182334677</v>
+        <v>0.04210628513254548</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -982,19 +982,19 @@
         <v>33419</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23732</v>
+        <v>23385</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45811</v>
+        <v>45211</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06631419829705637</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04709230016328454</v>
+        <v>0.04640298885765645</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09090342811074402</v>
+        <v>0.08971274728471952</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -1003,19 +1003,19 @@
         <v>45330</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33294</v>
+        <v>32163</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58968</v>
+        <v>58744</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04546502040693719</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0333933806312521</v>
+        <v>0.03225938430279417</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05914363793977117</v>
+        <v>0.05891888185043601</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>481164</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>473157</v>
+        <v>472313</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>486937</v>
+        <v>486426</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9758439513785764</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9596045281766535</v>
+        <v>0.9578937148674543</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.987551524552344</v>
+        <v>0.9865153176441269</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>466</v>
@@ -1053,19 +1053,19 @@
         <v>470530</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>458138</v>
+        <v>458738</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>480217</v>
+        <v>480564</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9336858017029436</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.909096571889256</v>
+        <v>0.9102872527152804</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9529076998367152</v>
+        <v>0.9535970111423433</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>919</v>
@@ -1074,19 +1074,19 @@
         <v>951694</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>938056</v>
+        <v>938280</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>963730</v>
+        <v>964861</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9545349795930628</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9408563620602288</v>
+        <v>0.9410811181495639</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9666066193687479</v>
+        <v>0.9677406156972058</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>6081</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2891</v>
+        <v>2134</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13326</v>
+        <v>12272</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01907260533305986</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009066178909580013</v>
+        <v>0.006694449388607289</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04179590446918365</v>
+        <v>0.03848838069669494</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5329</v>
+        <v>5077</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002760411406031054</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01588709996662261</v>
+        <v>0.01513621063169874</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1220,19 +1220,19 @@
         <v>7007</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3055</v>
+        <v>2985</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14258</v>
+        <v>13590</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01070999250342494</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004669547424658911</v>
+        <v>0.004562722962564553</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02179215889847415</v>
+        <v>0.02077140523603799</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>312765</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>305520</v>
+        <v>306574</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>315955</v>
+        <v>316712</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9809273946669401</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9582040955308172</v>
+        <v>0.9615116193033056</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9909338210904201</v>
+        <v>0.9933055506113929</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>334</v>
@@ -1270,7 +1270,7 @@
         <v>334486</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>330083</v>
+        <v>330335</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>335412</v>
@@ -1279,7 +1279,7 @@
         <v>0.997239588593969</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9841129000333788</v>
+        <v>0.9848637893683007</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,19 +1291,19 @@
         <v>647251</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>640000</v>
+        <v>640668</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>651203</v>
+        <v>651273</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.989290007496575</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9782078411015258</v>
+        <v>0.9792285947639635</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.995330452575341</v>
+        <v>0.9954372770374355</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>4531</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1057</v>
+        <v>1634</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12223</v>
+        <v>12403</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01263293138405098</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002947670611330444</v>
+        <v>0.004557007946678096</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03407826997143723</v>
+        <v>0.03458144007243994</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -1416,19 +1416,19 @@
         <v>14581</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8279</v>
+        <v>8315</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>22216</v>
+        <v>22501</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03925429475251477</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02228713676558131</v>
+        <v>0.02238359272804541</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05980777032199013</v>
+        <v>0.06057572989028948</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -1437,19 +1437,19 @@
         <v>19112</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11539</v>
+        <v>11305</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29231</v>
+        <v>28851</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02617668908270529</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01580400964449262</v>
+        <v>0.01548396851714582</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.040034888708541</v>
+        <v>0.03951466491401574</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>354140</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>346448</v>
+        <v>346268</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>357614</v>
+        <v>357037</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.987367068615949</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9659217300285629</v>
+        <v>0.9654185599275601</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9970523293886695</v>
+        <v>0.995442992053322</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>369</v>
@@ -1487,19 +1487,19 @@
         <v>356875</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>349240</v>
+        <v>348955</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>363177</v>
+        <v>363141</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9607457052474853</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.94019222967801</v>
+        <v>0.939424270109711</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9777128632344187</v>
+        <v>0.9776164072719546</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>727</v>
@@ -1508,19 +1508,19 @@
         <v>711015</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>700896</v>
+        <v>701276</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>718588</v>
+        <v>718822</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9738233109172947</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.959965111291459</v>
+        <v>0.9604853350859841</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9841959903555073</v>
+        <v>0.9845160314828539</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>4617</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1788</v>
+        <v>1736</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9659</v>
+        <v>10197</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02270719160526608</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008792242392745106</v>
+        <v>0.008539760538014324</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04750760011349179</v>
+        <v>0.05015541010632207</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1633,19 +1633,19 @@
         <v>12194</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6407</v>
+        <v>6725</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19879</v>
+        <v>20748</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05871771030683782</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03085131465238958</v>
+        <v>0.03238312376628584</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0957270778464366</v>
+        <v>0.09990980358333482</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1654,19 +1654,19 @@
         <v>16810</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9546</v>
+        <v>9944</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25494</v>
+        <v>26017</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04090346477141014</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0232272105807749</v>
+        <v>0.02419561114044337</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06203342671253186</v>
+        <v>0.06330556391978552</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>198691</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>193649</v>
+        <v>193111</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>201520</v>
+        <v>201572</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9772928083947339</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9524923998865092</v>
+        <v>0.9498445898936778</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9912077576072549</v>
+        <v>0.9914602394619856</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>186</v>
@@ -1704,19 +1704,19 @@
         <v>195474</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>187789</v>
+        <v>186920</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>201261</v>
+        <v>200943</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9412822896931622</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9042729221535627</v>
+        <v>0.9000901964166642</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9691486853476105</v>
+        <v>0.9676168762337141</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>387</v>
@@ -1725,19 +1725,19 @@
         <v>394166</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>385482</v>
+        <v>384959</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>401430</v>
+        <v>401032</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9590965352285898</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.937966573287468</v>
+        <v>0.9366944360802144</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9767727894192251</v>
+        <v>0.9758043888595567</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5779</v>
+        <v>5752</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006987056524454331</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02134069500852692</v>
+        <v>0.02123988270377072</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1850,19 +1850,19 @@
         <v>9164</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4290</v>
+        <v>4249</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18181</v>
+        <v>16656</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03294586468880859</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01542323592977967</v>
+        <v>0.01527737760308177</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06536682346763623</v>
+        <v>0.05988252301323642</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -1871,19 +1871,19 @@
         <v>11056</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>5978</v>
+        <v>5780</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19262</v>
+        <v>19306</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0201398407881692</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0108900014637015</v>
+        <v>0.01052923372481631</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03508822603448246</v>
+        <v>0.03516793089353513</v>
       </c>
     </row>
     <row r="20">
@@ -1900,7 +1900,7 @@
         <v>268919</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>265032</v>
+        <v>265059</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>270811</v>
@@ -1909,7 +1909,7 @@
         <v>0.9930129434755457</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9786593049914731</v>
+        <v>0.9787601172962292</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1921,19 +1921,19 @@
         <v>268980</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>259963</v>
+        <v>261488</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>273854</v>
+        <v>273895</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9670541353111914</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9346331765323638</v>
+        <v>0.9401174769867634</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9845767640702203</v>
+        <v>0.9847226223969182</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>525</v>
@@ -1942,19 +1942,19 @@
         <v>537899</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>529693</v>
+        <v>529649</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>542977</v>
+        <v>543175</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9798601592118308</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9649117739655175</v>
+        <v>0.9648320691064649</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9891099985362984</v>
+        <v>0.9894707662751838</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>16090</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>9815</v>
+        <v>9056</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25817</v>
+        <v>25826</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02616096030915664</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01595943889114543</v>
+        <v>0.01472428752071528</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04197680205029085</v>
+        <v>0.04199117137367744</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -2067,19 +2067,19 @@
         <v>31959</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22368</v>
+        <v>22677</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>43924</v>
+        <v>44469</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05007548801676901</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03504782611071242</v>
+        <v>0.03553243661562789</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06882286561649414</v>
+        <v>0.06967705332860571</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -2088,19 +2088,19 @@
         <v>48049</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>35590</v>
+        <v>35701</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>62609</v>
+        <v>62156</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03833950016616138</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02839864532048639</v>
+        <v>0.02848647074594869</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0499577216954435</v>
+        <v>0.04959616890303691</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>598937</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>589210</v>
+        <v>589201</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>605212</v>
+        <v>605971</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9738390396908434</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9580231979497095</v>
+        <v>0.9580088286263224</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9840405611088548</v>
+        <v>0.9852757124792847</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>587</v>
@@ -2138,19 +2138,19 @@
         <v>606260</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>594295</v>
+        <v>593750</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>615851</v>
+        <v>615542</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.949924511983231</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9311771343835058</v>
+        <v>0.9303229466713945</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9649521738892876</v>
+        <v>0.9644675633843721</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1169</v>
@@ -2159,19 +2159,19 @@
         <v>1205197</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1190637</v>
+        <v>1191090</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1217656</v>
+        <v>1217545</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9616604998338386</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9500422783045561</v>
+        <v>0.950403831096963</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9716013546795135</v>
+        <v>0.9715135292540512</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>33303</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>23057</v>
+        <v>23342</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46323</v>
+        <v>45761</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04483524784900083</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0310415433938313</v>
+        <v>0.03142505751727563</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06236490452492947</v>
+        <v>0.0616073553596377</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>56</v>
@@ -2284,19 +2284,19 @@
         <v>60042</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46124</v>
+        <v>45631</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>75288</v>
+        <v>77352</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07663182114888645</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05886806194856278</v>
+        <v>0.05823933505278465</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09608992939086708</v>
+        <v>0.09872434633850811</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>89</v>
@@ -2305,19 +2305,19 @@
         <v>93344</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>76668</v>
+        <v>76899</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>115802</v>
+        <v>113732</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06115783377461313</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05023177272966266</v>
+        <v>0.05038273148417274</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07587154139195744</v>
+        <v>0.07451569665750939</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>709474</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>696454</v>
+        <v>697016</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>719720</v>
+        <v>719435</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9551647521509992</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9376350954750706</v>
+        <v>0.9383926446403623</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9689584566061687</v>
+        <v>0.9685749424827244</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>689</v>
@@ -2355,19 +2355,19 @@
         <v>723469</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>708223</v>
+        <v>706159</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>737387</v>
+        <v>737880</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9233681788511136</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.903910070609133</v>
+        <v>0.9012756536614919</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9411319380514374</v>
+        <v>0.9417606649472151</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1391</v>
@@ -2376,19 +2376,19 @@
         <v>1432944</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1410486</v>
+        <v>1412556</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1449620</v>
+        <v>1449389</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9388421662253869</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9241284586080426</v>
+        <v>0.9254843033424907</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9497682272703374</v>
+        <v>0.9496172685158275</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>84552</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>67003</v>
+        <v>67556</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>103200</v>
+        <v>104450</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02581323006838105</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02045571700915001</v>
+        <v>0.02062454450905332</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0315063390412566</v>
+        <v>0.03188802299478079</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>177</v>
@@ -2501,19 +2501,19 @@
         <v>180138</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>156650</v>
+        <v>155946</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>207294</v>
+        <v>210239</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05330795268054919</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04635712865551635</v>
+        <v>0.04614883021046847</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0613442905330876</v>
+        <v>0.06221571151343309</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>262</v>
@@ -2522,19 +2522,19 @@
         <v>264690</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>233306</v>
+        <v>234115</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>295210</v>
+        <v>298864</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03977475787123594</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03505876950106671</v>
+        <v>0.0351802547518005</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04436100975319661</v>
+        <v>0.04491002382770409</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>3190973</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3172325</v>
+        <v>3171075</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3208522</v>
+        <v>3207969</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9741867699316189</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9684936609587439</v>
+        <v>0.9681119770052193</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9795442829908503</v>
+        <v>0.9793754554909468</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3120</v>
@@ -2572,19 +2572,19 @@
         <v>3199059</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3171903</v>
+        <v>3168958</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3222547</v>
+        <v>3223251</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9466920473194508</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9386557094669123</v>
+        <v>0.9377842884865669</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9536428713444837</v>
+        <v>0.9538511697895315</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6248</v>
@@ -2593,19 +2593,19 @@
         <v>6390032</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6359512</v>
+        <v>6355858</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6421416</v>
+        <v>6420607</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.960225242128764</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9556389902468033</v>
+        <v>0.955089976172296</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9649412304989331</v>
+        <v>0.9648197452481996</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>18282</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10417</v>
+        <v>10481</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29374</v>
+        <v>29090</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06256624928806971</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03565209631186095</v>
+        <v>0.03586929693627205</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.100527862988902</v>
+        <v>0.09955605857753497</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -2962,19 +2962,19 @@
         <v>23769</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15779</v>
+        <v>15373</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35217</v>
+        <v>35270</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08479489911014315</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05629058961719327</v>
+        <v>0.05484371123159244</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1256367725300077</v>
+        <v>0.1258246496481602</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -2983,19 +2983,19 @@
         <v>42051</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29977</v>
+        <v>29490</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55971</v>
+        <v>56142</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07344989128870912</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05236021776710702</v>
+        <v>0.05151061270777481</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09776410631973409</v>
+        <v>0.09806376196065632</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>273913</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>262821</v>
+        <v>263105</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>281778</v>
+        <v>281714</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9374337507119302</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.899472137011098</v>
+        <v>0.900443941422465</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9643479036881391</v>
+        <v>0.9641307030637279</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>228</v>
@@ -3033,19 +3033,19 @@
         <v>256543</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>245095</v>
+        <v>245042</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>264533</v>
+        <v>264939</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9152051008898568</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8743632274699918</v>
+        <v>0.8741753503518396</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9437094103828066</v>
+        <v>0.9451562887684075</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>491</v>
@@ -3054,19 +3054,19 @@
         <v>530455</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>516535</v>
+        <v>516364</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>542529</v>
+        <v>543016</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9265501087112908</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9022358936802654</v>
+        <v>0.9019362380393438</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9476397822328929</v>
+        <v>0.9484893872922252</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>18576</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10021</v>
+        <v>9465</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30855</v>
+        <v>31500</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03674547906493741</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01982264004382078</v>
+        <v>0.01872379405164613</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06103573770974813</v>
+        <v>0.06231023577357387</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -3179,19 +3179,19 @@
         <v>44255</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31698</v>
+        <v>32564</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>58983</v>
+        <v>59078</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08466058959519847</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06063880031431809</v>
+        <v>0.0622967440956569</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1128364429156958</v>
+        <v>0.11301857013025</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -3200,19 +3200,19 @@
         <v>62831</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47921</v>
+        <v>47066</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82358</v>
+        <v>82153</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06110386204586655</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04660361075722117</v>
+        <v>0.0457728713570171</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08009500135291032</v>
+        <v>0.07989514031381488</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>486951</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>474672</v>
+        <v>474027</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>495506</v>
+        <v>496062</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9632545209350626</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9389642622902518</v>
+        <v>0.9376897642264261</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9801773599561793</v>
+        <v>0.9812762059483539</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>440</v>
@@ -3250,19 +3250,19 @@
         <v>478476</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>463748</v>
+        <v>463653</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>491033</v>
+        <v>490167</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9153394104048015</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8871635570843042</v>
+        <v>0.88698142986975</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9393611996856819</v>
+        <v>0.9377032559043432</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>899</v>
@@ -3271,19 +3271,19 @@
         <v>965427</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>945900</v>
+        <v>946105</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>980337</v>
+        <v>981192</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9388961379541334</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9199049986470896</v>
+        <v>0.9201048596861852</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9533963892427789</v>
+        <v>0.9542271286429833</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>12232</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5964</v>
+        <v>6011</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22729</v>
+        <v>22356</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03785764750771594</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01845732357068104</v>
+        <v>0.01860387572972378</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07034260197032555</v>
+        <v>0.06918804521274291</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -3396,19 +3396,19 @@
         <v>8194</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3993</v>
+        <v>3946</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15617</v>
+        <v>15407</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02402771417866322</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01171038946273866</v>
+        <v>0.01157026585867114</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04579600546378327</v>
+        <v>0.04517935817323871</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -3417,19 +3417,19 @@
         <v>20426</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13004</v>
+        <v>12483</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32375</v>
+        <v>32275</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03075626598965469</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01958062701617099</v>
+        <v>0.01879557470250717</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.048747643030154</v>
+        <v>0.04859636485324484</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>310884</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>300387</v>
+        <v>300760</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>317152</v>
+        <v>317105</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9621423524922841</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9296573980296736</v>
+        <v>0.9308119547872571</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9815426764293188</v>
+        <v>0.9813961242702762</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>309</v>
@@ -3467,19 +3467,19 @@
         <v>332826</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>325403</v>
+        <v>325613</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>337027</v>
+        <v>337074</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9759722858213368</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.954203994536217</v>
+        <v>0.9548206418267612</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9882896105372614</v>
+        <v>0.9884297341413288</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>617</v>
@@ -3488,19 +3488,19 @@
         <v>643710</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>631761</v>
+        <v>631861</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>651132</v>
+        <v>651653</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9692437340103454</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9512523569698462</v>
+        <v>0.9514036351467555</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9804193729838291</v>
+        <v>0.9812044252974929</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>8715</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4117</v>
+        <v>4137</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19219</v>
+        <v>18334</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02330278689096235</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01100954374750095</v>
+        <v>0.01106079438872761</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05138959208664541</v>
+        <v>0.04902322549645417</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -3613,19 +3613,19 @@
         <v>39749</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28607</v>
+        <v>29331</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54852</v>
+        <v>52974</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1024516550631105</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07373527539528578</v>
+        <v>0.07560082509737071</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1413800046724558</v>
+        <v>0.136539814766442</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>46</v>
@@ -3634,19 +3634,19 @@
         <v>48463</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36765</v>
+        <v>37032</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>64917</v>
+        <v>65699</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06360394217417902</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04825108438533465</v>
+        <v>0.04860160872730366</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08519736556725173</v>
+        <v>0.0862244818840044</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>365267</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>354763</v>
+        <v>355648</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369865</v>
+        <v>369845</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9766972131090377</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9486104079133545</v>
+        <v>0.9509767745035442</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.988990456252499</v>
+        <v>0.9889392056112724</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>331</v>
@@ -3684,19 +3684,19 @@
         <v>348225</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>333122</v>
+        <v>335000</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>359367</v>
+        <v>358643</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8975483449368895</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8586199953275443</v>
+        <v>0.8634601852335583</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9262647246047143</v>
+        <v>0.9243991749026296</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>668</v>
@@ -3705,19 +3705,19 @@
         <v>713493</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>697039</v>
+        <v>696257</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>725191</v>
+        <v>724924</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.936396057825821</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9148026344327483</v>
+        <v>0.9137755181159957</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9517489156146653</v>
+        <v>0.9513983912726964</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>8592</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3984</v>
+        <v>3762</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16781</v>
+        <v>16649</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04041134743570732</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01873667601109309</v>
+        <v>0.01769254742093748</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.078925537428047</v>
+        <v>0.07830323297426059</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>33</v>
@@ -3830,19 +3830,19 @@
         <v>34478</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25413</v>
+        <v>24698</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46673</v>
+        <v>45860</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.157009644547247</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1157273132241356</v>
+        <v>0.1124719019742111</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2125461274003999</v>
+        <v>0.2088414433207658</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>41</v>
@@ -3851,19 +3851,19 @@
         <v>43070</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30318</v>
+        <v>31686</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>55902</v>
+        <v>57717</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09965105398741116</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07014738183006569</v>
+        <v>0.07331140539202839</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1293413402932923</v>
+        <v>0.1335388062524129</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>204026</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>195837</v>
+        <v>195969</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>208634</v>
+        <v>208856</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9595886525642927</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.921074462571953</v>
+        <v>0.9216967670257395</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9812633239889069</v>
+        <v>0.9823074525790627</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>179</v>
@@ -3901,19 +3901,19 @@
         <v>185113</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>172918</v>
+        <v>173731</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>194178</v>
+        <v>194893</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.842990355452753</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7874538725996004</v>
+        <v>0.7911585566792347</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8842726867758647</v>
+        <v>0.8875280980257889</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>367</v>
@@ -3922,19 +3922,19 @@
         <v>389139</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>376307</v>
+        <v>374492</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>401891</v>
+        <v>400523</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9003489460125889</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8706586597067083</v>
+        <v>0.866461193747587</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9298526181699345</v>
+        <v>0.9266885946079713</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>7004</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2954</v>
+        <v>3067</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13155</v>
+        <v>13409</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02556224601815991</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01078147376762345</v>
+        <v>0.01119360997087015</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04801505314066285</v>
+        <v>0.04894271090117883</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -4047,19 +4047,19 @@
         <v>15060</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8176</v>
+        <v>8556</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24682</v>
+        <v>23782</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05395272459888963</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02928858555241945</v>
+        <v>0.03065245216003701</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08842104998800988</v>
+        <v>0.08519840368442885</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -4068,19 +4068,19 @@
         <v>22064</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14278</v>
+        <v>14201</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>33160</v>
+        <v>33963</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03988989489019444</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02581336680605108</v>
+        <v>0.02567365390369447</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05995156629472133</v>
+        <v>0.0614030212320806</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>266977</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>260826</v>
+        <v>260572</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>271027</v>
+        <v>270914</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9744377539818401</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9519849468593372</v>
+        <v>0.9510572890988215</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9892185262323766</v>
+        <v>0.9888063900291298</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>254</v>
@@ -4118,19 +4118,19 @@
         <v>264080</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>254458</v>
+        <v>255358</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>270964</v>
+        <v>270584</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9460472754011103</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9115789500119897</v>
+        <v>0.9148015963155711</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9707114144475805</v>
+        <v>0.9693475478399628</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>508</v>
@@ -4139,19 +4139,19 @@
         <v>531057</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>519961</v>
+        <v>519158</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>538843</v>
+        <v>538920</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9601101051098055</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9400484337052788</v>
+        <v>0.9385969787679195</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9741866331939489</v>
+        <v>0.9743263460963055</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>20176</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11814</v>
+        <v>11986</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31310</v>
+        <v>32076</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03044042981038697</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01782404265918136</v>
+        <v>0.01808377315499277</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0472404344574783</v>
+        <v>0.04839527710343627</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -4264,19 +4264,19 @@
         <v>28595</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18973</v>
+        <v>19028</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>41647</v>
+        <v>41530</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04121168170193293</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02734446458129926</v>
+        <v>0.02742380714395633</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06002242481506641</v>
+        <v>0.05985412074793268</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>44</v>
@@ -4285,19 +4285,19 @@
         <v>48770</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36326</v>
+        <v>34628</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>65372</v>
+        <v>65303</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03594937806450491</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02677618205799235</v>
+        <v>0.0255246441022317</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0481866404312325</v>
+        <v>0.04813573485000174</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>642612</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>631478</v>
+        <v>630712</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>650974</v>
+        <v>650802</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.969559570189613</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9527595655425214</v>
+        <v>0.9516047228965635</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9821759573408186</v>
+        <v>0.9819162268450072</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>610</v>
@@ -4335,19 +4335,19 @@
         <v>665258</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>652206</v>
+        <v>652323</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>674880</v>
+        <v>674825</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9587883182980671</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9399775751849335</v>
+        <v>0.9401458792520673</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9726555354187008</v>
+        <v>0.9725761928560437</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1210</v>
@@ -4356,19 +4356,19 @@
         <v>1307871</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1291269</v>
+        <v>1291338</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1320315</v>
+        <v>1322013</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9640506219354951</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9518133595687676</v>
+        <v>0.9518642651499983</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9732238179420076</v>
+        <v>0.9744753558977683</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>21209</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12688</v>
+        <v>12973</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33557</v>
+        <v>33496</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02729660255240953</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01632986281552625</v>
+        <v>0.01669641173015642</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04318971246582956</v>
+        <v>0.04311045853679244</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>54</v>
@@ -4481,19 +4481,19 @@
         <v>58713</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>44945</v>
+        <v>45435</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>75718</v>
+        <v>73336</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07136830028684253</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05463319149264273</v>
+        <v>0.05522917057639834</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09203926196443511</v>
+        <v>0.08914404437301297</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>72</v>
@@ -4502,19 +4502,19 @@
         <v>79921</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>62832</v>
+        <v>61946</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>98009</v>
+        <v>98999</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04996196858727608</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03927883979553126</v>
+        <v>0.03872509050512254</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06126947934136653</v>
+        <v>0.06188817502191227</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>755763</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>743415</v>
+        <v>743476</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>764284</v>
+        <v>763999</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9727033974475905</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9568102875341704</v>
+        <v>0.9568895414632078</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9836701371844738</v>
+        <v>0.9833035882698435</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>702</v>
@@ -4552,19 +4552,19 @@
         <v>763957</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>746952</v>
+        <v>749334</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>777725</v>
+        <v>777235</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9286316997131575</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9079607380355653</v>
+        <v>0.9108559556269875</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9453668085073573</v>
+        <v>0.9447708294236018</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1399</v>
@@ -4573,19 +4573,19 @@
         <v>1519721</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1501633</v>
+        <v>1500643</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1536810</v>
+        <v>1537696</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9500380314127239</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9387305206586335</v>
+        <v>0.9381118249780878</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9607211602044687</v>
+        <v>0.9612749094948778</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>114785</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>91480</v>
+        <v>92829</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>139574</v>
+        <v>139888</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03355118118953666</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02673937484947642</v>
+        <v>0.02713357235955597</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04079713072250962</v>
+        <v>0.04088874018502649</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>235</v>
@@ -4698,19 +4698,19 @@
         <v>252812</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>224840</v>
+        <v>220999</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>287162</v>
+        <v>285280</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07126901197491868</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06338367757465636</v>
+        <v>0.06230076659572482</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08095250038921865</v>
+        <v>0.08042195249927023</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>332</v>
@@ -4719,19 +4719,19 @@
         <v>367597</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>331366</v>
+        <v>329122</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>410136</v>
+        <v>406733</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0527513974962274</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04755216702335444</v>
+        <v>0.0472300922148439</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0588560159562462</v>
+        <v>0.05836757455631206</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>3306394</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3281605</v>
+        <v>3281291</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3329699</v>
+        <v>3328350</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9664488188104633</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9592028692774909</v>
+        <v>0.9591112598149736</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9732606251505236</v>
+        <v>0.9728664276404442</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3053</v>
@@ -4769,19 +4769,19 @@
         <v>3294480</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3260130</v>
+        <v>3262012</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3322452</v>
+        <v>3326293</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9287309880250814</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9190474996107814</v>
+        <v>0.9195780475007299</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9366163224253437</v>
+        <v>0.9376992334042752</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6159</v>
@@ -4790,19 +4790,19 @@
         <v>6600874</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6558335</v>
+        <v>6561738</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6637105</v>
+        <v>6639349</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9472486025037726</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9411439840437532</v>
+        <v>0.941632425443688</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9524478329766454</v>
+        <v>0.9527699077851561</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>10580</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5643</v>
+        <v>5123</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19614</v>
+        <v>19213</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03601426691084857</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01921091066964138</v>
+        <v>0.01743892714334934</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06676733194203965</v>
+        <v>0.06540251432379954</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -5159,19 +5159,19 @@
         <v>19520</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11892</v>
+        <v>12301</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29159</v>
+        <v>30577</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06761303124989176</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04118999647255488</v>
+        <v>0.0426077333197728</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1009998008435583</v>
+        <v>0.1059104705971912</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -5180,19 +5180,19 @@
         <v>30100</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20176</v>
+        <v>20031</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42082</v>
+        <v>44184</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05167645040318403</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03463990737674848</v>
+        <v>0.03439084475246072</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07224838882467059</v>
+        <v>0.07585713602033349</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>283181</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>274147</v>
+        <v>274548</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>288118</v>
+        <v>288638</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9639857330891515</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9332326680579597</v>
+        <v>0.9345974856762004</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9807890893303586</v>
+        <v>0.9825610728566506</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>259</v>
@@ -5230,19 +5230,19 @@
         <v>269183</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>259544</v>
+        <v>258126</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>276811</v>
+        <v>276402</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9323869687501083</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8990001991564416</v>
+        <v>0.8940895294028088</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9588100035274446</v>
+        <v>0.9573922666802273</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>515</v>
@@ -5251,19 +5251,19 @@
         <v>552364</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>540382</v>
+        <v>538280</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>562288</v>
+        <v>562433</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.948323549596816</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9277516111753293</v>
+        <v>0.9241428639796671</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9653600926232516</v>
+        <v>0.9656091552475393</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>16075</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9225</v>
+        <v>9602</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25334</v>
+        <v>25579</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03198472294013989</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01835534914833458</v>
+        <v>0.0191061389993341</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05040889658383661</v>
+        <v>0.05089490312621858</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -5376,19 +5376,19 @@
         <v>37055</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26229</v>
+        <v>25696</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50934</v>
+        <v>50876</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07084043008514217</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05014336444952992</v>
+        <v>0.04912421636518236</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09737220058933846</v>
+        <v>0.09726156079087105</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>49</v>
@@ -5397,19 +5397,19 @@
         <v>53130</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39538</v>
+        <v>40090</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67792</v>
+        <v>69072</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05180104742209689</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03854904643600403</v>
+        <v>0.03908736308878813</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06609588554246242</v>
+        <v>0.06734382488202202</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>486500</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>477241</v>
+        <v>476996</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>493350</v>
+        <v>492973</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9680152770598601</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9495911034161634</v>
+        <v>0.9491050968737814</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9816446508516655</v>
+        <v>0.9808938610006659</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>450</v>
@@ -5447,19 +5447,19 @@
         <v>486029</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>472150</v>
+        <v>472208</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>496855</v>
+        <v>497388</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9291595699148578</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9026277994106613</v>
+        <v>0.9027384392091289</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9498566355504701</v>
+        <v>0.9508757836348176</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>910</v>
@@ -5468,19 +5468,19 @@
         <v>972529</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>957867</v>
+        <v>956587</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>986121</v>
+        <v>985569</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9481989525779031</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9339041144575376</v>
+        <v>0.9326561751179778</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.961450953563996</v>
+        <v>0.9609126369112118</v>
       </c>
     </row>
     <row r="9">
@@ -5572,7 +5572,7 @@
         <v>9937</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4699</v>
+        <v>4963</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>18629</v>
@@ -5581,10 +5581,10 @@
         <v>0.03119435357527937</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0147504024855943</v>
+        <v>0.01557795473423414</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05847771963406723</v>
+        <v>0.05847920100099967</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -5593,19 +5593,19 @@
         <v>19466</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12385</v>
+        <v>11646</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29561</v>
+        <v>28546</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05788183908911183</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03682655469540308</v>
+        <v>0.03462803214380503</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08789929728076171</v>
+        <v>0.08488004275293402</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -5614,19 +5614,19 @@
         <v>29404</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20477</v>
+        <v>19220</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42132</v>
+        <v>41561</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04489964898240415</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03126807239471789</v>
+        <v>0.02934910386643133</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06433567793129907</v>
+        <v>0.06346410420760709</v>
       </c>
     </row>
     <row r="11">
@@ -5646,16 +5646,16 @@
         <v>299936</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>313866</v>
+        <v>313602</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9688056464247207</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9415222803659328</v>
+        <v>0.9415207989990005</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9852495975144056</v>
+        <v>0.9844220452657658</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>312</v>
@@ -5664,19 +5664,19 @@
         <v>316843</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>306748</v>
+        <v>307763</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>323924</v>
+        <v>324663</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9421181609108882</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.912100702719237</v>
+        <v>0.9151199572470659</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9631734453045969</v>
+        <v>0.9653719678561949</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>638</v>
@@ -5685,19 +5685,19 @@
         <v>625470</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>612742</v>
+        <v>613313</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>634397</v>
+        <v>635654</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9551003510175958</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9356643220687011</v>
+        <v>0.9365358957923924</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9687319276052823</v>
+        <v>0.9706508961335684</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>15762</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9373</v>
+        <v>9448</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25188</v>
+        <v>26114</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04260430860841976</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02533573289296646</v>
+        <v>0.02553770629883406</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0680827122677973</v>
+        <v>0.07058613833059801</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -5810,19 +5810,19 @@
         <v>32794</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22703</v>
+        <v>22770</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45564</v>
+        <v>44323</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08467665537466981</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05862209505498639</v>
+        <v>0.05879523955290149</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1176512290882784</v>
+        <v>0.1144447865760518</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>46</v>
@@ -5831,19 +5831,19 @@
         <v>48556</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36841</v>
+        <v>35189</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>64418</v>
+        <v>64651</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06412160049501321</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04865109561854709</v>
+        <v>0.04646946031332432</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08506911015802557</v>
+        <v>0.085375979165593</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>354202</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>344776</v>
+        <v>343850</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>360591</v>
+        <v>360516</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9573956913915802</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9319172877322026</v>
+        <v>0.9294138616694021</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9746642671070336</v>
+        <v>0.974462293701166</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>327</v>
@@ -5881,19 +5881,19 @@
         <v>354489</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>341719</v>
+        <v>342960</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>364580</v>
+        <v>364513</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9153233446253302</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8823487709117216</v>
+        <v>0.8855552134239482</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9413779049450136</v>
+        <v>0.9412047604470984</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>666</v>
@@ -5902,19 +5902,19 @@
         <v>708691</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>692829</v>
+        <v>692596</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>720406</v>
+        <v>722058</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9358783995049867</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9149308898419743</v>
+        <v>0.914624020834407</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9513489043814528</v>
+        <v>0.9535305396866757</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>9421</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3905</v>
+        <v>4707</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16255</v>
+        <v>17882</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04460345939416564</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01848697301660475</v>
+        <v>0.02228608184682734</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07695586407673376</v>
+        <v>0.08465830879637605</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -6027,19 +6027,19 @@
         <v>28708</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19624</v>
+        <v>18864</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>38559</v>
+        <v>40058</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1313332920760284</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08977736405129391</v>
+        <v>0.08629942655417258</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1764022969366549</v>
+        <v>0.1832583312541337</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -6048,19 +6048,19 @@
         <v>38129</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>26758</v>
+        <v>27427</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50159</v>
+        <v>49673</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08871155885539588</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06225641077009778</v>
+        <v>0.06381294553237273</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1167016492589152</v>
+        <v>0.1155711367070869</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>201800</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>194966</v>
+        <v>193339</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>207316</v>
+        <v>206514</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9553965406058343</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9230441359232663</v>
+        <v>0.915341691203624</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9815130269833953</v>
+        <v>0.9777139181531727</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>195</v>
@@ -6098,19 +6098,19 @@
         <v>189879</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>180028</v>
+        <v>178529</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>198963</v>
+        <v>199723</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8686667079239716</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8235977030633451</v>
+        <v>0.8167416687458663</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9102226359487061</v>
+        <v>0.9137005734458276</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>397</v>
@@ -6119,19 +6119,19 @@
         <v>391679</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>379649</v>
+        <v>380135</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>403050</v>
+        <v>402381</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9112884411446042</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8832983507410849</v>
+        <v>0.8844288632929134</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9377435892299024</v>
+        <v>0.9361870544676274</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>8314</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3772</v>
+        <v>3707</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17138</v>
+        <v>16325</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03159731926998654</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01433644505045781</v>
+        <v>0.01408940534184903</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06513471128030691</v>
+        <v>0.06204470886368284</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>14</v>
@@ -6244,19 +6244,19 @@
         <v>14495</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7881</v>
+        <v>8381</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23526</v>
+        <v>23531</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05307315211353768</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02885741697295637</v>
+        <v>0.03068529592594157</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08613826924551418</v>
+        <v>0.0861580200614617</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -6265,19 +6265,19 @@
         <v>22809</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14441</v>
+        <v>14302</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34727</v>
+        <v>32941</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04253532086743752</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02692939038705139</v>
+        <v>0.02667119814927537</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06476036726226203</v>
+        <v>0.06142955934412671</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>254809</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>245985</v>
+        <v>246798</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>259351</v>
+        <v>259416</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9684026807300135</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9348652887196933</v>
+        <v>0.9379552911363163</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9856635549495422</v>
+        <v>0.985910594658151</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>249</v>
@@ -6315,19 +6315,19 @@
         <v>258620</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>249589</v>
+        <v>249584</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>265234</v>
+        <v>264734</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9469268478864623</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9138617307544858</v>
+        <v>0.9138419799385383</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9711425830270437</v>
+        <v>0.9693147040740584</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>500</v>
@@ -6336,19 +6336,19 @@
         <v>513429</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>501511</v>
+        <v>503297</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>521797</v>
+        <v>521936</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9574646791325625</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.935239632737738</v>
+        <v>0.9385704406558733</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9730706096129487</v>
+        <v>0.9733288018507246</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>22889</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14565</v>
+        <v>14870</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34995</v>
+        <v>34422</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0348624916154144</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02218358176632501</v>
+        <v>0.02264777422482618</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05330012974340873</v>
+        <v>0.05242822657302094</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>42</v>
@@ -6461,19 +6461,19 @@
         <v>49355</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>36017</v>
+        <v>35943</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>65124</v>
+        <v>66814</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07139514557717863</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05210062215303917</v>
+        <v>0.05199399105785254</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09420666109509178</v>
+        <v>0.09665094344267547</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>63</v>
@@ -6482,19 +6482,19 @@
         <v>72244</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>55543</v>
+        <v>57074</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>92975</v>
+        <v>91410</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0535995670147031</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04120842568290203</v>
+        <v>0.04234422472063986</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06897980354617002</v>
+        <v>0.06781882969721871</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>633669</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>621563</v>
+        <v>622136</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>641993</v>
+        <v>641688</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9651375083845856</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9466998702565912</v>
+        <v>0.947571773426979</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9778164182336749</v>
+        <v>0.9773522257751738</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>604</v>
@@ -6532,19 +6532,19 @@
         <v>641939</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>626170</v>
+        <v>624480</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>655277</v>
+        <v>655351</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9286048544228214</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9057933389049082</v>
+        <v>0.9033490565573244</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9478993778469608</v>
+        <v>0.9480060089421474</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1163</v>
@@ -6553,19 +6553,19 @@
         <v>1275608</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1254877</v>
+        <v>1256442</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1292309</v>
+        <v>1290778</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9464004329852969</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9310201964538297</v>
+        <v>0.932181170302781</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9587915743170976</v>
+        <v>0.9576557752793599</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>25187</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>16279</v>
+        <v>16735</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>37392</v>
+        <v>35872</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03234932531278246</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02090863006328395</v>
+        <v>0.02149460640742902</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0480259983041124</v>
+        <v>0.04607392771744175</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>59</v>
@@ -6678,19 +6678,19 @@
         <v>69264</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>53559</v>
+        <v>53139</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>86926</v>
+        <v>87042</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08383734987376025</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06482817884367474</v>
+        <v>0.06432016071510423</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1052156359177645</v>
+        <v>0.1053559731669765</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>84</v>
@@ -6699,19 +6699,19 @@
         <v>94450</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>76014</v>
+        <v>76134</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>117192</v>
+        <v>115811</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05885669837541607</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04736834152298603</v>
+        <v>0.04744288697527574</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07302804961871777</v>
+        <v>0.07216738805533174</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>753396</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>741191</v>
+        <v>742711</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>762304</v>
+        <v>761848</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9676506746872175</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9519740016958876</v>
+        <v>0.9539260722825583</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9790913699367157</v>
+        <v>0.9785053935925709</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>696</v>
@@ -6749,19 +6749,19 @@
         <v>756903</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>739241</v>
+        <v>739125</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>772608</v>
+        <v>773028</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9161626501262398</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8947843640822355</v>
+        <v>0.8946440268330242</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9351718211563254</v>
+        <v>0.9356798392848957</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1421</v>
@@ -6770,19 +6770,19 @@
         <v>1510300</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1487558</v>
+        <v>1488939</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1528736</v>
+        <v>1528616</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9411433016245839</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9269719503812822</v>
+        <v>0.9278326119446683</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9526316584770138</v>
+        <v>0.9525571130247242</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>118165</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>98712</v>
+        <v>98133</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>140587</v>
+        <v>141384</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03481221709572157</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02908121080103974</v>
+        <v>0.02891074587079791</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0414180542750661</v>
+        <v>0.04165267043984326</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>246</v>
@@ -6895,19 +6895,19 @@
         <v>270657</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>238236</v>
+        <v>238163</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>302886</v>
+        <v>305656</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07635883703637372</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06721206316001878</v>
+        <v>0.06719145952517991</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0854514299740696</v>
+        <v>0.08623277123905633</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>359</v>
@@ -6916,19 +6916,19 @@
         <v>388822</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>350998</v>
+        <v>352730</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>428115</v>
+        <v>426407</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05603516335786481</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05058417854181586</v>
+        <v>0.05083381690630415</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06169786487479319</v>
+        <v>0.06145175399198887</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>3276185</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3253763</v>
+        <v>3252966</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3295638</v>
+        <v>3296217</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9651877829042784</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.958581945724934</v>
+        <v>0.9583473295601567</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9709187891989605</v>
+        <v>0.9710892541292019</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3092</v>
@@ -6966,19 +6966,19 @@
         <v>3273885</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3241656</v>
+        <v>3238886</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3306306</v>
+        <v>3306379</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9236411629636263</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9145485700259304</v>
+        <v>0.9137672287609436</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9327879368399812</v>
+        <v>0.9328085404748204</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6210</v>
@@ -6987,19 +6987,19 @@
         <v>6550070</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6510777</v>
+        <v>6512485</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6587894</v>
+        <v>6586162</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9439648366421352</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9383021351252068</v>
+        <v>0.9385482460080111</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9494158214581842</v>
+        <v>0.9491661830936957</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>8413</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4298</v>
+        <v>3908</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15478</v>
+        <v>15093</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02638656016076354</v>
+        <v>0.02638656016076355</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01347927335385885</v>
+        <v>0.0122576730001783</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04854273902821057</v>
+        <v>0.04733680557086087</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -7356,19 +7356,19 @@
         <v>11673</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7541</v>
+        <v>7428</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16816</v>
+        <v>16938</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03693147327610671</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02385916785634013</v>
+        <v>0.02350172590113767</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05320388169267112</v>
+        <v>0.05359056442948004</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -7377,19 +7377,19 @@
         <v>20086</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13964</v>
+        <v>14401</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28578</v>
+        <v>29517</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03163589221611757</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02199386572637755</v>
+        <v>0.02268152446494737</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04501140605125514</v>
+        <v>0.04649040745087261</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>310432</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>303367</v>
+        <v>303752</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>314547</v>
+        <v>314937</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9736134398392364</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9514572609717888</v>
+        <v>0.9526631944291387</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9865207266461411</v>
+        <v>0.9877423269998217</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>515</v>
@@ -7427,19 +7427,19 @@
         <v>304388</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>299245</v>
+        <v>299123</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>308520</v>
+        <v>308633</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9630685267238932</v>
+        <v>0.9630685267238934</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9467961183073286</v>
+        <v>0.9464094355705199</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9761408321436594</v>
+        <v>0.9764982740988623</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>836</v>
@@ -7448,19 +7448,19 @@
         <v>614820</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>606328</v>
+        <v>605389</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>620942</v>
+        <v>620505</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9683641077838826</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9549885939487447</v>
+        <v>0.9535095925491271</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9780061342736225</v>
+        <v>0.9773184755350526</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>32424</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21422</v>
+        <v>21873</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47695</v>
+        <v>45651</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06121586480219825</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04044511363840358</v>
+        <v>0.04129605778006108</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09004768940553713</v>
+        <v>0.08618920481457373</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>78</v>
@@ -7573,19 +7573,19 @@
         <v>52005</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41635</v>
+        <v>42193</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64297</v>
+        <v>64246</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09538555302930217</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07636470011978178</v>
+        <v>0.07738755464649288</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1179297511759413</v>
+        <v>0.1178367045240951</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>104</v>
@@ -7594,19 +7594,19 @@
         <v>84429</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68045</v>
+        <v>68612</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>101301</v>
+        <v>102567</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07854793330139463</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06330517951091377</v>
+        <v>0.06383251112240548</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09424486151758116</v>
+        <v>0.09542205201678919</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>497236</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>481965</v>
+        <v>484009</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>508238</v>
+        <v>507787</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9387841351978017</v>
+        <v>0.9387841351978018</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9099523105944628</v>
+        <v>0.9138107951854264</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9595548863615966</v>
+        <v>0.9587039422199389</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>637</v>
@@ -7644,19 +7644,19 @@
         <v>493208</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>480916</v>
+        <v>480967</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>503578</v>
+        <v>503020</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9046144469706978</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8820702488240588</v>
+        <v>0.8821632954759051</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9236352998802184</v>
+        <v>0.9226124453535071</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>992</v>
@@ -7665,19 +7665,19 @@
         <v>990444</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>973572</v>
+        <v>972306</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1006828</v>
+        <v>1006261</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9214520666986052</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9057551384824191</v>
+        <v>0.9045779479832101</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9366948204890865</v>
+        <v>0.9361674888775944</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>14177</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8363</v>
+        <v>8808</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22952</v>
+        <v>22266</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04493390185843747</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02650822122982237</v>
+        <v>0.02791745444259005</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0727474627691107</v>
+        <v>0.07057289816252886</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -7790,19 +7790,19 @@
         <v>27127</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19628</v>
+        <v>20183</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35104</v>
+        <v>35352</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.076118378273368</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05507547517609249</v>
+        <v>0.05663452309135098</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09850174045964323</v>
+        <v>0.09919810951993631</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -7811,19 +7811,19 @@
         <v>41304</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31458</v>
+        <v>32289</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52406</v>
+        <v>53886</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0614749052103187</v>
+        <v>0.06147490521031871</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04682099645567261</v>
+        <v>0.04805808567103391</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07799865578470863</v>
+        <v>0.08020119210554492</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>301321</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>292546</v>
+        <v>293232</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>307135</v>
+        <v>306690</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9550660981415624</v>
+        <v>0.9550660981415626</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9272525372308899</v>
+        <v>0.929427101837471</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9734917787701778</v>
+        <v>0.9720825455574099</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>490</v>
@@ -7861,19 +7861,19 @@
         <v>329254</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>321277</v>
+        <v>321029</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>336753</v>
+        <v>336198</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9238816217266321</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9014982595403568</v>
+        <v>0.9008018904800635</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9449245248239074</v>
+        <v>0.9433654769086487</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>832</v>
@@ -7882,19 +7882,19 @@
         <v>630576</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>619474</v>
+        <v>617994</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>640422</v>
+        <v>639591</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9385250947896812</v>
+        <v>0.9385250947896814</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9220013442152913</v>
+        <v>0.9197988078944552</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9531790035443272</v>
+        <v>0.9519419143289662</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>8241</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3391</v>
+        <v>3070</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17538</v>
+        <v>18532</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02208425113923658</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009087764119044127</v>
+        <v>0.008227713738289667</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04699965026356379</v>
+        <v>0.04966523533861878</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -8007,19 +8007,19 @@
         <v>16510</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10732</v>
+        <v>10450</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24321</v>
+        <v>24561</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03915867778851462</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02545446290297802</v>
+        <v>0.0247836765912157</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05768342418934946</v>
+        <v>0.05825342401034984</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -8028,19 +8028,19 @@
         <v>24751</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>16174</v>
+        <v>15929</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>37680</v>
+        <v>35389</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03114227380572171</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0203498840023054</v>
+        <v>0.02004157719137914</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04740962040493641</v>
+        <v>0.04452733085356495</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>364904</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>355607</v>
+        <v>354613</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369754</v>
+        <v>370075</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9779157488607636</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9530003497364361</v>
+        <v>0.9503347646613812</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9909122358809559</v>
+        <v>0.9917722862617104</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>571</v>
@@ -8078,19 +8078,19 @@
         <v>405120</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>397309</v>
+        <v>397069</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>410898</v>
+        <v>411180</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9608413222114855</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9423165758106503</v>
+        <v>0.9417465759896497</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9745455370970219</v>
+        <v>0.9752163234087842</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>856</v>
@@ -8099,19 +8099,19 @@
         <v>770024</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>757095</v>
+        <v>759386</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>778601</v>
+        <v>778846</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9688577261942782</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9525903795950641</v>
+        <v>0.9554726691464352</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9796501159976947</v>
+        <v>0.9799584228086209</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>5046</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2471</v>
+        <v>2535</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9413</v>
+        <v>9619</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02453580891844662</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01201347771338324</v>
+        <v>0.0123254389918104</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04576875320103732</v>
+        <v>0.04676989323389406</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>58</v>
@@ -8224,19 +8224,19 @@
         <v>22923</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17433</v>
+        <v>17868</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29177</v>
+        <v>28833</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.10088787086634</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07672503445980197</v>
+        <v>0.0786410769118558</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1284116254782463</v>
+        <v>0.1268982398590537</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>67</v>
@@ -8245,19 +8245,19 @@
         <v>27969</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21819</v>
+        <v>21953</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35711</v>
+        <v>35195</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06461235198489507</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0504038775355498</v>
+        <v>0.05071456412817104</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0824967291563964</v>
+        <v>0.08130488381040402</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>200619</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>196252</v>
+        <v>196046</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>203194</v>
+        <v>203130</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9754641910815532</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9542312467989627</v>
+        <v>0.9532301067661064</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9879865222866168</v>
+        <v>0.9876745610081897</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>434</v>
@@ -8295,19 +8295,19 @@
         <v>204292</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>198038</v>
+        <v>198382</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>209782</v>
+        <v>209347</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8991121291336601</v>
+        <v>0.8991121291336599</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8715883745217535</v>
+        <v>0.8731017601409463</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9232749655401981</v>
+        <v>0.9213589230881442</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>704</v>
@@ -8316,19 +8316,19 @@
         <v>404910</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>397168</v>
+        <v>397684</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>411060</v>
+        <v>410926</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9353876480151051</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9175032708436035</v>
+        <v>0.9186951161895961</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9495961224644504</v>
+        <v>0.9492854358718291</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>13623</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8626</v>
+        <v>8621</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>20354</v>
+        <v>20705</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.05032425272732053</v>
+        <v>0.05032425272732054</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03186461916154933</v>
+        <v>0.03184504529326581</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07518701020616748</v>
+        <v>0.07648371283486426</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>60</v>
@@ -8441,19 +8441,19 @@
         <v>28214</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21484</v>
+        <v>21674</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36058</v>
+        <v>36015</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.10697237840868</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08145484448368764</v>
+        <v>0.08217668411372625</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1367141127513824</v>
+        <v>0.1365489309453389</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>82</v>
@@ -8462,19 +8462,19 @@
         <v>41837</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>33491</v>
+        <v>33144</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51921</v>
+        <v>51417</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07827963941655985</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0626644898781572</v>
+        <v>0.06201500628921305</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0971471862319558</v>
+        <v>0.09620385479099675</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>257084</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>250353</v>
+        <v>250002</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>262081</v>
+        <v>262086</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9496757472726794</v>
+        <v>0.9496757472726796</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9248129897938319</v>
+        <v>0.9235162871651362</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9681353808384499</v>
+        <v>0.9681549547067345</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>400</v>
@@ -8512,19 +8512,19 @@
         <v>235536</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>227692</v>
+        <v>227735</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>242266</v>
+        <v>242076</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8930276215913201</v>
+        <v>0.8930276215913199</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8632858872486177</v>
+        <v>0.8634510690546613</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9185451555163121</v>
+        <v>0.9178233158862736</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>749</v>
@@ -8533,19 +8533,19 @@
         <v>492620</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>482536</v>
+        <v>483040</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>500966</v>
+        <v>501313</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9217203605834402</v>
+        <v>0.9217203605834403</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9028528137680442</v>
+        <v>0.9037961452090033</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.937335510121843</v>
+        <v>0.937984993710787</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>27424</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17554</v>
+        <v>18753</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39239</v>
+        <v>39719</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03810549407796934</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02439134113423483</v>
+        <v>0.02605764088154401</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05452239434240285</v>
+        <v>0.05518874530625267</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>95</v>
@@ -8658,19 +8658,19 @@
         <v>70380</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>56147</v>
+        <v>55997</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>84932</v>
+        <v>85220</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09123941652956773</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07278810029493873</v>
+        <v>0.07259291520161276</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1101036456903265</v>
+        <v>0.1104775314412748</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>122</v>
@@ -8679,19 +8679,19 @@
         <v>97804</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>81363</v>
+        <v>81285</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>117771</v>
+        <v>116302</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.06559346984700495</v>
+        <v>0.06559346984700497</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05456693926584786</v>
+        <v>0.05451458395179735</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07898462595087433</v>
+        <v>0.07799902618851266</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>692263</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>680448</v>
+        <v>679968</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>702133</v>
+        <v>700934</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9618945059220306</v>
+        <v>0.9618945059220307</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9454776056575972</v>
+        <v>0.944811254693747</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9756086588657652</v>
+        <v>0.9739423591184559</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>864</v>
@@ -8729,19 +8729,19 @@
         <v>700999</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>686447</v>
+        <v>686159</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>715232</v>
+        <v>715382</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9087605834704322</v>
+        <v>0.9087605834704323</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8898963543096732</v>
+        <v>0.8895224685587251</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9272118997050612</v>
+        <v>0.9274070847983866</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1436</v>
@@ -8750,19 +8750,19 @@
         <v>1393262</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1373295</v>
+        <v>1374764</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1409703</v>
+        <v>1409781</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9344065301529951</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9210153740491261</v>
+        <v>0.9220009738114875</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9454330607341523</v>
+        <v>0.9454854160482029</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>41093</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>31497</v>
+        <v>30801</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54861</v>
+        <v>54377</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0514902922112597</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03946648163936994</v>
+        <v>0.03859481558618424</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06874239192306497</v>
+        <v>0.06813489325102438</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>124</v>
@@ -8875,19 +8875,19 @@
         <v>85254</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>70892</v>
+        <v>70855</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>100518</v>
+        <v>102006</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1027150402787593</v>
+        <v>0.1027150402787594</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08541199155171302</v>
+        <v>0.08536657607119937</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1211052378601425</v>
+        <v>0.1228975189289348</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>173</v>
@@ -8896,19 +8896,19 @@
         <v>126347</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>108550</v>
+        <v>109005</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>145900</v>
+        <v>147146</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07760503701411443</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06667389999115762</v>
+        <v>0.0669529430095407</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08961500880424572</v>
+        <v>0.09038036700723337</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>756979</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>743211</v>
+        <v>743695</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>766575</v>
+        <v>767271</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9485097077887402</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.931257608076935</v>
+        <v>0.9318651067489756</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9605335183606301</v>
+        <v>0.9614051844138157</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>936</v>
@@ -8946,19 +8946,19 @@
         <v>744752</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>729488</v>
+        <v>728000</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>759114</v>
+        <v>759151</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8972849597212408</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8788947621398575</v>
+        <v>0.8771024810710651</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9145880084482874</v>
+        <v>0.9146334239288008</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1649</v>
@@ -8967,19 +8967,19 @@
         <v>1501731</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1482178</v>
+        <v>1480932</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1519528</v>
+        <v>1519073</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9223949629858856</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9103849911957542</v>
+        <v>0.9096196329927664</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9333261000088425</v>
+        <v>0.9330470569904592</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>150440</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>127848</v>
+        <v>128528</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>175428</v>
+        <v>177902</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.04260220142732761</v>
+        <v>0.0426022014273276</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03620433916357802</v>
+        <v>0.03639710590812335</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04967828967545175</v>
+        <v>0.05037896737454911</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>511</v>
@@ -9092,19 +9092,19 @@
         <v>314087</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>288087</v>
+        <v>290653</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>342515</v>
+        <v>344884</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.08416877020835269</v>
+        <v>0.08416877020835266</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07720123231909302</v>
+        <v>0.07788883169725812</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09178685948479684</v>
+        <v>0.09242167545615469</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>678</v>
@@ -9113,19 +9113,19 @@
         <v>464527</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>430047</v>
+        <v>426577</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>502619</v>
+        <v>502269</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.06395881662727775</v>
+        <v>0.06395881662727776</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05921133505176703</v>
+        <v>0.05873353348297853</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06920344312363322</v>
+        <v>0.06915528454445774</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>3380840</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3355852</v>
+        <v>3353378</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3403432</v>
+        <v>3402752</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9573977985726724</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9503217103245483</v>
+        <v>0.9496210326254508</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.963795660836422</v>
+        <v>0.9636028940918764</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4847</v>
@@ -9163,19 +9163,19 @@
         <v>3417548</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3389120</v>
+        <v>3386751</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3443548</v>
+        <v>3440982</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9158312297916474</v>
+        <v>0.9158312297916473</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9082131405152032</v>
+        <v>0.9075783245438452</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.922798767680907</v>
+        <v>0.9221111683027416</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8054</v>
@@ -9184,19 +9184,19 @@
         <v>6798388</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6760296</v>
+        <v>6760646</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6832868</v>
+        <v>6836338</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9360411833727221</v>
+        <v>0.9360411833727222</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.930796556876367</v>
+        <v>0.9308447154555423</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9407886649482331</v>
+        <v>0.9412664665170216</v>
       </c>
     </row>
     <row r="30">
